--- a/tut05/output/0501EE03.xlsx
+++ b/tut05/output/0501EE03.xlsx
@@ -550,28 +550,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.591836734693878</v>
+        <v>6.59</v>
       </c>
       <c r="C6" t="n">
-        <v>6.409090909090909</v>
+        <v>6.41</v>
       </c>
       <c r="D6" t="n">
-        <v>5.847826086956522</v>
+        <v>5.85</v>
       </c>
       <c r="E6" t="n">
-        <v>5.913043478260869</v>
+        <v>5.91</v>
       </c>
       <c r="F6" t="n">
-        <v>5.769230769230769</v>
+        <v>5.77</v>
       </c>
       <c r="G6" t="n">
         <v>5.15</v>
       </c>
       <c r="H6" t="n">
-        <v>6.13953488372093</v>
+        <v>6.14</v>
       </c>
       <c r="I6" t="n">
-        <v>6.210526315789473</v>
+        <v>6.21</v>
       </c>
     </row>
     <row r="7">
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.591836734693878</v>
+        <v>6.59</v>
       </c>
       <c r="C8" t="n">
-        <v>6.505376344086022</v>
+        <v>6.51</v>
       </c>
       <c r="D8" t="n">
-        <v>6.287769784172662</v>
+        <v>6.29</v>
       </c>
       <c r="E8" t="n">
-        <v>6.194594594594594</v>
+        <v>6.19</v>
       </c>
       <c r="F8" t="n">
-        <v>6.120535714285714</v>
+        <v>6.12</v>
       </c>
       <c r="G8" t="n">
-        <v>5.973484848484849</v>
+        <v>5.97</v>
       </c>
       <c r="H8" t="n">
-        <v>5.996742671009772</v>
+        <v>6</v>
       </c>
       <c r="I8" t="n">
-        <v>6.020289855072464</v>
+        <v>6.02</v>
       </c>
     </row>
   </sheetData>
